--- a/natmiOut/YoungD2/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Tlr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.23831058160895</v>
+        <v>0.243795</v>
       </c>
       <c r="H2">
-        <v>5.23831058160895</v>
+        <v>0.731385</v>
       </c>
       <c r="I2">
-        <v>0.001505989458048906</v>
+        <v>6.390794166387177E-05</v>
       </c>
       <c r="J2">
-        <v>0.001505989458048906</v>
+        <v>6.390794166387177E-05</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.03289190731455</v>
+        <v>4.752338666666668</v>
       </c>
       <c r="N2">
-        <v>3.03289190731455</v>
+        <v>14.257016</v>
       </c>
       <c r="O2">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="P2">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="Q2">
-        <v>15.88722977096196</v>
+        <v>1.15859640524</v>
       </c>
       <c r="R2">
-        <v>15.88722977096196</v>
+        <v>10.42736764716</v>
       </c>
       <c r="S2">
-        <v>4.305219073755085E-05</v>
+        <v>2.653227456445402E-06</v>
       </c>
       <c r="T2">
-        <v>4.305219073755085E-05</v>
+        <v>2.653227456445402E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.23831058160895</v>
+        <v>0.243795</v>
       </c>
       <c r="H3">
-        <v>5.23831058160895</v>
+        <v>0.731385</v>
       </c>
       <c r="I3">
-        <v>0.001505989458048906</v>
+        <v>6.390794166387177E-05</v>
       </c>
       <c r="J3">
-        <v>0.001505989458048906</v>
+        <v>6.390794166387177E-05</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.09443306800975</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N3">
-        <v>7.09443306800975</v>
+        <v>21.28786</v>
       </c>
       <c r="O3">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="P3">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="Q3">
-        <v>37.16284381067192</v>
+        <v>1.7299579429</v>
       </c>
       <c r="R3">
-        <v>37.16284381067192</v>
+        <v>15.5696214861</v>
       </c>
       <c r="S3">
-        <v>0.0001007061560229442</v>
+        <v>3.961665936333788E-06</v>
       </c>
       <c r="T3">
-        <v>0.0001007061560229442</v>
+        <v>3.961665936333788E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>5.23831058160895</v>
+        <v>0.243795</v>
       </c>
       <c r="H4">
-        <v>5.23831058160895</v>
+        <v>0.731385</v>
       </c>
       <c r="I4">
-        <v>0.001505989458048906</v>
+        <v>6.390794166387177E-05</v>
       </c>
       <c r="J4">
-        <v>0.001505989458048906</v>
+        <v>6.390794166387177E-05</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.7615038984025</v>
+        <v>27.34521433333333</v>
       </c>
       <c r="N4">
-        <v>23.7615038984025</v>
+        <v>82.03564300000001</v>
       </c>
       <c r="O4">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="P4">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="Q4">
-        <v>124.4701373059441</v>
+        <v>6.666626528395</v>
       </c>
       <c r="R4">
-        <v>124.4701373059441</v>
+        <v>59.999638755555</v>
       </c>
       <c r="S4">
-        <v>0.0003372968207597205</v>
+        <v>1.526681462760181E-05</v>
       </c>
       <c r="T4">
-        <v>0.0003372968207597205</v>
+        <v>1.526681462760181E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>5.23831058160895</v>
+        <v>0.243795</v>
       </c>
       <c r="H5">
-        <v>5.23831058160895</v>
+        <v>0.731385</v>
       </c>
       <c r="I5">
-        <v>0.001505989458048906</v>
+        <v>6.390794166387177E-05</v>
       </c>
       <c r="J5">
-        <v>0.001505989458048906</v>
+        <v>6.390794166387177E-05</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.7209827432616</v>
+        <v>19.73820233333333</v>
       </c>
       <c r="N5">
-        <v>19.7209827432616</v>
+        <v>59.214607</v>
       </c>
       <c r="O5">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="P5">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="Q5">
-        <v>103.3046325837547</v>
+        <v>4.812075037855</v>
       </c>
       <c r="R5">
-        <v>103.3046325837547</v>
+        <v>43.308675340695</v>
       </c>
       <c r="S5">
-        <v>0.0002799412364638526</v>
+        <v>1.101982498406567E-05</v>
       </c>
       <c r="T5">
-        <v>0.0002799412364638526</v>
+        <v>1.101982498406567E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>5.23831058160895</v>
+        <v>0.243795</v>
       </c>
       <c r="H6">
-        <v>5.23831058160895</v>
+        <v>0.731385</v>
       </c>
       <c r="I6">
-        <v>0.001505989458048906</v>
+        <v>6.390794166387177E-05</v>
       </c>
       <c r="J6">
-        <v>0.001505989458048906</v>
+        <v>6.390794166387177E-05</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>49.0763680599753</v>
+        <v>51.532109</v>
       </c>
       <c r="N6">
-        <v>49.0763680599753</v>
+        <v>154.596327</v>
       </c>
       <c r="O6">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="P6">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="Q6">
-        <v>257.0772581155041</v>
+        <v>12.563270513655</v>
       </c>
       <c r="R6">
-        <v>257.0772581155041</v>
+        <v>113.069434622895</v>
       </c>
       <c r="S6">
-        <v>0.0006966437390428158</v>
+        <v>2.877034152602561E-05</v>
       </c>
       <c r="T6">
-        <v>0.0006966437390428158</v>
+        <v>2.877034152602561E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>5.23831058160895</v>
+        <v>0.243795</v>
       </c>
       <c r="H7">
-        <v>5.23831058160895</v>
+        <v>0.731385</v>
       </c>
       <c r="I7">
-        <v>0.001505989458048906</v>
+        <v>6.390794166387177E-05</v>
       </c>
       <c r="J7">
-        <v>0.001505989458048906</v>
+        <v>6.390794166387177E-05</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.40605771140451</v>
+        <v>4.005140333333333</v>
       </c>
       <c r="N7">
-        <v>3.40605771140451</v>
+        <v>12.015421</v>
       </c>
       <c r="O7">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="P7">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="Q7">
-        <v>17.84198815122101</v>
+        <v>0.976433187565</v>
       </c>
       <c r="R7">
-        <v>17.84198815122101</v>
+        <v>8.787898688084999</v>
       </c>
       <c r="S7">
-        <v>4.83493150220222E-05</v>
+        <v>2.23606713339949E-06</v>
       </c>
       <c r="T7">
-        <v>4.83493150220222E-05</v>
+        <v>2.23606713339949E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>3473.07991642343</v>
+        <v>0.132869</v>
       </c>
       <c r="H8">
-        <v>3473.07991642343</v>
+        <v>0.398607</v>
       </c>
       <c r="I8">
-        <v>0.9984940105419511</v>
+        <v>3.483001825688377E-05</v>
       </c>
       <c r="J8">
-        <v>0.9984940105419511</v>
+        <v>3.483001825688377E-05</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.03289190731455</v>
+        <v>4.752338666666668</v>
       </c>
       <c r="N8">
-        <v>3.03289190731455</v>
+        <v>14.257016</v>
       </c>
       <c r="O8">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="P8">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="Q8">
-        <v>10533.47597197731</v>
+        <v>0.6314384863013334</v>
       </c>
       <c r="R8">
-        <v>10533.47597197731</v>
+        <v>5.682946376712001</v>
       </c>
       <c r="S8">
-        <v>0.02854425996304564</v>
+        <v>1.446016853956989E-06</v>
       </c>
       <c r="T8">
-        <v>0.02854425996304564</v>
+        <v>1.446016853956989E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>3473.07991642343</v>
+        <v>0.132869</v>
       </c>
       <c r="H9">
-        <v>3473.07991642343</v>
+        <v>0.398607</v>
       </c>
       <c r="I9">
-        <v>0.9984940105419511</v>
+        <v>3.483001825688377E-05</v>
       </c>
       <c r="J9">
-        <v>0.9984940105419511</v>
+        <v>3.483001825688377E-05</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.09443306800975</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N9">
-        <v>7.09443306800975</v>
+        <v>21.28786</v>
       </c>
       <c r="O9">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="P9">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="Q9">
-        <v>24639.53300691492</v>
+        <v>0.9428322234466665</v>
       </c>
       <c r="R9">
-        <v>24639.53300691492</v>
+        <v>8.48549001102</v>
       </c>
       <c r="S9">
-        <v>0.06676971945334</v>
+        <v>2.159119716543547E-06</v>
       </c>
       <c r="T9">
-        <v>0.06676971945334</v>
+        <v>2.159119716543547E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>3473.07991642343</v>
+        <v>0.132869</v>
       </c>
       <c r="H10">
-        <v>3473.07991642343</v>
+        <v>0.398607</v>
       </c>
       <c r="I10">
-        <v>0.9984940105419511</v>
+        <v>3.483001825688377E-05</v>
       </c>
       <c r="J10">
-        <v>0.9984940105419511</v>
+        <v>3.483001825688377E-05</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.7615038984025</v>
+        <v>27.34521433333333</v>
       </c>
       <c r="N10">
-        <v>23.7615038984025</v>
+        <v>82.03564300000001</v>
       </c>
       <c r="O10">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="P10">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="Q10">
-        <v>82525.60197355875</v>
+        <v>3.633331283255667</v>
       </c>
       <c r="R10">
-        <v>82525.60197355875</v>
+        <v>32.699981549301</v>
       </c>
       <c r="S10">
-        <v>0.223632943446863</v>
+        <v>8.320459372648432E-06</v>
       </c>
       <c r="T10">
-        <v>0.223632943446863</v>
+        <v>8.320459372648432E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>3473.07991642343</v>
+        <v>0.132869</v>
       </c>
       <c r="H11">
-        <v>3473.07991642343</v>
+        <v>0.398607</v>
       </c>
       <c r="I11">
-        <v>0.9984940105419511</v>
+        <v>3.483001825688377E-05</v>
       </c>
       <c r="J11">
-        <v>0.9984940105419511</v>
+        <v>3.483001825688377E-05</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.7209827432616</v>
+        <v>19.73820233333333</v>
       </c>
       <c r="N11">
-        <v>19.7209827432616</v>
+        <v>59.214607</v>
       </c>
       <c r="O11">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="P11">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="Q11">
-        <v>68492.54909775491</v>
+        <v>2.622595205827666</v>
       </c>
       <c r="R11">
-        <v>68492.54909775491</v>
+        <v>23.603356852449</v>
       </c>
       <c r="S11">
-        <v>0.1856053151095747</v>
+        <v>6.005837387181124E-06</v>
       </c>
       <c r="T11">
-        <v>0.1856053151095747</v>
+        <v>6.005837387181124E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>3473.07991642343</v>
+        <v>0.132869</v>
       </c>
       <c r="H12">
-        <v>3473.07991642343</v>
+        <v>0.398607</v>
       </c>
       <c r="I12">
-        <v>0.9984940105419511</v>
+        <v>3.483001825688377E-05</v>
       </c>
       <c r="J12">
-        <v>0.9984940105419511</v>
+        <v>3.483001825688377E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>49.0763680599753</v>
+        <v>51.532109</v>
       </c>
       <c r="N12">
-        <v>49.0763680599753</v>
+        <v>154.596327</v>
       </c>
       <c r="O12">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="P12">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="Q12">
-        <v>170446.1482801045</v>
+        <v>6.847019790720999</v>
       </c>
       <c r="R12">
-        <v>170446.1482801045</v>
+        <v>61.623178116489</v>
       </c>
       <c r="S12">
-        <v>0.461885438306443</v>
+        <v>1.567992168921223E-05</v>
       </c>
       <c r="T12">
-        <v>0.461885438306443</v>
+        <v>1.567992168921223E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1222,49 +1222,1165 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>3473.07991642343</v>
+        <v>0.132869</v>
       </c>
       <c r="H13">
-        <v>3473.07991642343</v>
+        <v>0.398607</v>
       </c>
       <c r="I13">
-        <v>0.9984940105419511</v>
+        <v>3.483001825688377E-05</v>
       </c>
       <c r="J13">
-        <v>0.9984940105419511</v>
+        <v>3.483001825688377E-05</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.40605771140451</v>
+        <v>4.005140333333333</v>
       </c>
       <c r="N13">
-        <v>3.40605771140451</v>
+        <v>12.015421</v>
       </c>
       <c r="O13">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="P13">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="Q13">
-        <v>11829.51063165816</v>
+        <v>0.5321589909496666</v>
       </c>
       <c r="R13">
-        <v>11829.51063165816</v>
+        <v>4.789430918547</v>
       </c>
       <c r="S13">
-        <v>0.03205633426268472</v>
+        <v>1.218663237341442E-06</v>
       </c>
       <c r="T13">
-        <v>0.03205633426268472</v>
+        <v>1.218663237341442E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>37.28116933333333</v>
+      </c>
+      <c r="H14">
+        <v>111.843508</v>
+      </c>
+      <c r="I14">
+        <v>0.009772812383008643</v>
+      </c>
+      <c r="J14">
+        <v>0.009772812383008641</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.752338666666668</v>
+      </c>
+      <c r="N14">
+        <v>14.257016</v>
+      </c>
+      <c r="O14">
+        <v>0.04151639666945049</v>
+      </c>
+      <c r="P14">
+        <v>0.04151639666945049</v>
+      </c>
+      <c r="Q14">
+        <v>177.1727425613476</v>
+      </c>
+      <c r="R14">
+        <v>1594.554683052128</v>
+      </c>
+      <c r="S14">
+        <v>0.0004057319554691045</v>
+      </c>
+      <c r="T14">
+        <v>0.0004057319554691044</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>37.28116933333333</v>
+      </c>
+      <c r="H15">
+        <v>111.843508</v>
+      </c>
+      <c r="I15">
+        <v>0.009772812383008643</v>
+      </c>
+      <c r="J15">
+        <v>0.009772812383008641</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.095953333333333</v>
+      </c>
+      <c r="N15">
+        <v>21.28786</v>
+      </c>
+      <c r="O15">
+        <v>0.06199019766855336</v>
+      </c>
+      <c r="P15">
+        <v>0.06199019766855336</v>
+      </c>
+      <c r="Q15">
+        <v>264.5454378014311</v>
+      </c>
+      <c r="R15">
+        <v>2380.90894021288</v>
+      </c>
+      <c r="S15">
+        <v>0.0006058185714003918</v>
+      </c>
+      <c r="T15">
+        <v>0.0006058185714003917</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>37.28116933333333</v>
+      </c>
+      <c r="H16">
+        <v>111.843508</v>
+      </c>
+      <c r="I16">
+        <v>0.009772812383008643</v>
+      </c>
+      <c r="J16">
+        <v>0.009772812383008641</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>27.34521433333333</v>
+      </c>
+      <c r="N16">
+        <v>82.03564300000001</v>
+      </c>
+      <c r="O16">
+        <v>0.238887597223811</v>
+      </c>
+      <c r="P16">
+        <v>0.238887597223811</v>
+      </c>
+      <c r="Q16">
+        <v>1019.461566017294</v>
+      </c>
+      <c r="R16">
+        <v>9175.154094155645</v>
+      </c>
+      <c r="S16">
+        <v>0.002334603668296041</v>
+      </c>
+      <c r="T16">
+        <v>0.002334603668296041</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>37.28116933333333</v>
+      </c>
+      <c r="H17">
+        <v>111.843508</v>
+      </c>
+      <c r="I17">
+        <v>0.009772812383008643</v>
+      </c>
+      <c r="J17">
+        <v>0.009772812383008641</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.73820233333333</v>
+      </c>
+      <c r="N17">
+        <v>59.214607</v>
+      </c>
+      <c r="O17">
+        <v>0.1724327946912327</v>
+      </c>
+      <c r="P17">
+        <v>0.1724327946912327</v>
+      </c>
+      <c r="Q17">
+        <v>735.863263524595</v>
+      </c>
+      <c r="R17">
+        <v>6622.769371721356</v>
+      </c>
+      <c r="S17">
+        <v>0.001685153351195265</v>
+      </c>
+      <c r="T17">
+        <v>0.001685153351195265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>37.28116933333333</v>
+      </c>
+      <c r="H18">
+        <v>111.843508</v>
+      </c>
+      <c r="I18">
+        <v>0.009772812383008643</v>
+      </c>
+      <c r="J18">
+        <v>0.009772812383008641</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>51.532109</v>
+      </c>
+      <c r="N18">
+        <v>154.596327</v>
+      </c>
+      <c r="O18">
+        <v>0.4501841363839443</v>
+      </c>
+      <c r="P18">
+        <v>0.4501841363839443</v>
+      </c>
+      <c r="Q18">
+        <v>1921.177281732791</v>
+      </c>
+      <c r="R18">
+        <v>17290.59553559512</v>
+      </c>
+      <c r="S18">
+        <v>0.004399565102687063</v>
+      </c>
+      <c r="T18">
+        <v>0.004399565102687062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>37.28116933333333</v>
+      </c>
+      <c r="H19">
+        <v>111.843508</v>
+      </c>
+      <c r="I19">
+        <v>0.009772812383008643</v>
+      </c>
+      <c r="J19">
+        <v>0.009772812383008641</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.005140333333333</v>
+      </c>
+      <c r="N19">
+        <v>12.015421</v>
+      </c>
+      <c r="O19">
+        <v>0.03498887736300817</v>
+      </c>
+      <c r="P19">
+        <v>0.03498887736300817</v>
+      </c>
+      <c r="Q19">
+        <v>149.3163149707631</v>
+      </c>
+      <c r="R19">
+        <v>1343.846834736868</v>
+      </c>
+      <c r="S19">
+        <v>0.0003419397339607771</v>
+      </c>
+      <c r="T19">
+        <v>0.000341939733960777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>2.905242333333334</v>
+      </c>
+      <c r="H20">
+        <v>8.715727000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.0007615745095595783</v>
+      </c>
+      <c r="J20">
+        <v>0.0007615745095595782</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.752338666666668</v>
+      </c>
+      <c r="N20">
+        <v>14.257016</v>
+      </c>
+      <c r="O20">
+        <v>0.04151639666945049</v>
+      </c>
+      <c r="P20">
+        <v>0.04151639666945049</v>
+      </c>
+      <c r="Q20">
+        <v>13.80669547673689</v>
+      </c>
+      <c r="R20">
+        <v>124.260259290632</v>
+      </c>
+      <c r="S20">
+        <v>3.161782943221766E-05</v>
+      </c>
+      <c r="T20">
+        <v>3.161782943221766E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>2.905242333333334</v>
+      </c>
+      <c r="H21">
+        <v>8.715727000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.0007615745095595783</v>
+      </c>
+      <c r="J21">
+        <v>0.0007615745095595782</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.095953333333333</v>
+      </c>
+      <c r="N21">
+        <v>21.28786</v>
+      </c>
+      <c r="O21">
+        <v>0.06199019766855336</v>
+      </c>
+      <c r="P21">
+        <v>0.06199019766855336</v>
+      </c>
+      <c r="Q21">
+        <v>20.61546401935778</v>
+      </c>
+      <c r="R21">
+        <v>185.53917617422</v>
+      </c>
+      <c r="S21">
+        <v>4.721015438692985E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.721015438692984E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>2.905242333333334</v>
+      </c>
+      <c r="H22">
+        <v>8.715727000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.0007615745095595783</v>
+      </c>
+      <c r="J22">
+        <v>0.0007615745095595782</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>27.34521433333333</v>
+      </c>
+      <c r="N22">
+        <v>82.03564300000001</v>
+      </c>
+      <c r="O22">
+        <v>0.238887597223811</v>
+      </c>
+      <c r="P22">
+        <v>0.238887597223811</v>
+      </c>
+      <c r="Q22">
+        <v>79.44447429527345</v>
+      </c>
+      <c r="R22">
+        <v>715.0002686574611</v>
+      </c>
+      <c r="S22">
+        <v>0.0001819307046955899</v>
+      </c>
+      <c r="T22">
+        <v>0.0001819307046955899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>2.905242333333334</v>
+      </c>
+      <c r="H23">
+        <v>8.715727000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.0007615745095595783</v>
+      </c>
+      <c r="J23">
+        <v>0.0007615745095595782</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>19.73820233333333</v>
+      </c>
+      <c r="N23">
+        <v>59.214607</v>
+      </c>
+      <c r="O23">
+        <v>0.1724327946912327</v>
+      </c>
+      <c r="P23">
+        <v>0.1724327946912327</v>
+      </c>
+      <c r="Q23">
+        <v>57.34426100269879</v>
+      </c>
+      <c r="R23">
+        <v>516.0983490242891</v>
+      </c>
+      <c r="S23">
+        <v>0.000131320421048963</v>
+      </c>
+      <c r="T23">
+        <v>0.000131320421048963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>2.905242333333334</v>
+      </c>
+      <c r="H24">
+        <v>8.715727000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.0007615745095595783</v>
+      </c>
+      <c r="J24">
+        <v>0.0007615745095595782</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>51.532109</v>
+      </c>
+      <c r="N24">
+        <v>154.596327</v>
+      </c>
+      <c r="O24">
+        <v>0.4501841363839443</v>
+      </c>
+      <c r="P24">
+        <v>0.4501841363839443</v>
+      </c>
+      <c r="Q24">
+        <v>149.7132645927477</v>
+      </c>
+      <c r="R24">
+        <v>1347.419381334729</v>
+      </c>
+      <c r="S24">
+        <v>0.0003428487628781047</v>
+      </c>
+      <c r="T24">
+        <v>0.0003428487628781047</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>2.905242333333334</v>
+      </c>
+      <c r="H25">
+        <v>8.715727000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.0007615745095595783</v>
+      </c>
+      <c r="J25">
+        <v>0.0007615745095595782</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.005140333333333</v>
+      </c>
+      <c r="N25">
+        <v>12.015421</v>
+      </c>
+      <c r="O25">
+        <v>0.03498887736300817</v>
+      </c>
+      <c r="P25">
+        <v>0.03498887736300817</v>
+      </c>
+      <c r="Q25">
+        <v>11.63590324734078</v>
+      </c>
+      <c r="R25">
+        <v>104.723129226067</v>
+      </c>
+      <c r="S25">
+        <v>2.664663711777318E-05</v>
+      </c>
+      <c r="T25">
+        <v>2.664663711777318E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3774.221028666667</v>
+      </c>
+      <c r="H26">
+        <v>11322.663086</v>
+      </c>
+      <c r="I26">
+        <v>0.9893668751475111</v>
+      </c>
+      <c r="J26">
+        <v>0.989366875147511</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.752338666666668</v>
+      </c>
+      <c r="N26">
+        <v>14.257016</v>
+      </c>
+      <c r="O26">
+        <v>0.04151639666945049</v>
+      </c>
+      <c r="P26">
+        <v>0.04151639666945049</v>
+      </c>
+      <c r="Q26">
+        <v>17936.37653107905</v>
+      </c>
+      <c r="R26">
+        <v>161427.3887797114</v>
+      </c>
+      <c r="S26">
+        <v>0.04107494764023877</v>
+      </c>
+      <c r="T26">
+        <v>0.04107494764023876</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3774.221028666667</v>
+      </c>
+      <c r="H27">
+        <v>11322.663086</v>
+      </c>
+      <c r="I27">
+        <v>0.9893668751475111</v>
+      </c>
+      <c r="J27">
+        <v>0.989366875147511</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>7.095953333333333</v>
+      </c>
+      <c r="N27">
+        <v>21.28786</v>
+      </c>
+      <c r="O27">
+        <v>0.06199019766855336</v>
+      </c>
+      <c r="P27">
+        <v>0.06199019766855336</v>
+      </c>
+      <c r="Q27">
+        <v>26781.69628910399</v>
+      </c>
+      <c r="R27">
+        <v>241035.266601936</v>
+      </c>
+      <c r="S27">
+        <v>0.06133104815711317</v>
+      </c>
+      <c r="T27">
+        <v>0.06133104815711316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3774.221028666667</v>
+      </c>
+      <c r="H28">
+        <v>11322.663086</v>
+      </c>
+      <c r="I28">
+        <v>0.9893668751475111</v>
+      </c>
+      <c r="J28">
+        <v>0.989366875147511</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>27.34521433333333</v>
+      </c>
+      <c r="N28">
+        <v>82.03564300000001</v>
+      </c>
+      <c r="O28">
+        <v>0.238887597223811</v>
+      </c>
+      <c r="P28">
+        <v>0.238887597223811</v>
+      </c>
+      <c r="Q28">
+        <v>103206.8829702638</v>
+      </c>
+      <c r="R28">
+        <v>928861.9467323744</v>
+      </c>
+      <c r="S28">
+        <v>0.2363474755768191</v>
+      </c>
+      <c r="T28">
+        <v>0.2363474755768191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3774.221028666667</v>
+      </c>
+      <c r="H29">
+        <v>11322.663086</v>
+      </c>
+      <c r="I29">
+        <v>0.9893668751475111</v>
+      </c>
+      <c r="J29">
+        <v>0.989366875147511</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>19.73820233333333</v>
+      </c>
+      <c r="N29">
+        <v>59.214607</v>
+      </c>
+      <c r="O29">
+        <v>0.1724327946912327</v>
+      </c>
+      <c r="P29">
+        <v>0.1724327946912327</v>
+      </c>
+      <c r="Q29">
+        <v>74496.33831454413</v>
+      </c>
+      <c r="R29">
+        <v>670467.0448308972</v>
+      </c>
+      <c r="S29">
+        <v>0.1705992952566172</v>
+      </c>
+      <c r="T29">
+        <v>0.1705992952566172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3774.221028666667</v>
+      </c>
+      <c r="H30">
+        <v>11322.663086</v>
+      </c>
+      <c r="I30">
+        <v>0.9893668751475111</v>
+      </c>
+      <c r="J30">
+        <v>0.989366875147511</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>51.532109</v>
+      </c>
+      <c r="N30">
+        <v>154.596327</v>
+      </c>
+      <c r="O30">
+        <v>0.4501841363839443</v>
+      </c>
+      <c r="P30">
+        <v>0.4501841363839443</v>
+      </c>
+      <c r="Q30">
+        <v>194493.5694393428</v>
+      </c>
+      <c r="R30">
+        <v>1750442.124954085</v>
+      </c>
+      <c r="S30">
+        <v>0.445397272255164</v>
+      </c>
+      <c r="T30">
+        <v>0.4453972722551639</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3774.221028666667</v>
+      </c>
+      <c r="H31">
+        <v>11322.663086</v>
+      </c>
+      <c r="I31">
+        <v>0.9893668751475111</v>
+      </c>
+      <c r="J31">
+        <v>0.989366875147511</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.005140333333333</v>
+      </c>
+      <c r="N31">
+        <v>12.015421</v>
+      </c>
+      <c r="O31">
+        <v>0.03498887736300817</v>
+      </c>
+      <c r="P31">
+        <v>0.03498887736300817</v>
+      </c>
+      <c r="Q31">
+        <v>15116.28486882769</v>
+      </c>
+      <c r="R31">
+        <v>136046.5638194492</v>
+      </c>
+      <c r="S31">
+        <v>0.03461683626155888</v>
+      </c>
+      <c r="T31">
+        <v>0.03461683626155888</v>
       </c>
     </row>
   </sheetData>
